--- a/Projects/Scraping Liquor website/Liquor_data.xlsx
+++ b/Projects/Scraping Liquor website/Liquor_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Projects/Scraping Liquor website/Liquor_data.xlsx
+++ b/Projects/Scraping Liquor website/Liquor_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C264"/>
+  <dimension ref="A1:C265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2180</v>
+        <v>2230</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Finlandia Regular 750ML</t>
+          <t>Finlandia Cranberry 750ML</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2373,11 +2373,11 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Grey Goose 1L</t>
+          <t>Finlandia Regular 750ML</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>13750</v>
+        <v>4910</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2388,11 +2388,11 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Grey Goose 750ML</t>
+          <t>Grey Goose 1L</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>10315</v>
+        <v>13750</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2403,11 +2403,11 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Grey Wolf 750ML</t>
+          <t>Grey Goose 750ML</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1180</v>
+        <v>10315</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Highlander Pure White 750ML</t>
+          <t>Grey Wolf 750ML</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2433,11 +2433,11 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Ketel One Vodka 1L</t>
+          <t>Highlander Pure White 750ML</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>8600</v>
+        <v>1180</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2448,11 +2448,11 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Nude Superior Vodka 750ML</t>
+          <t>Ketel One Vodka 1L</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2240</v>
+        <v>8600</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Reyka Vodka 700ML</t>
+          <t>Nude Superior Vodka 750ML</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>7795</v>
+        <v>2240</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2478,11 +2478,11 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Ruslan Premium 750ML</t>
+          <t>Reyka Vodka 700ML</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2155</v>
+        <v>7795</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2493,11 +2493,11 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Seto Bagh Vodka 750ML</t>
+          <t>Ruslan Premium 750ML</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2080</v>
+        <v>2155</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2508,11 +2508,11 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Silver Oak 750ML</t>
+          <t>Seto Bagh Vodka 750ML</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1180</v>
+        <v>2080</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2523,11 +2523,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SKYY Original 1L</t>
+          <t>Silver Oak 750ML</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>6995</v>
+        <v>1180</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2538,11 +2538,11 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SKYY Vodka 750ML (Bottled in Nepal)</t>
+          <t>SKYY Original 1L</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2400</v>
+        <v>6995</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2553,11 +2553,11 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Smirnoff Vodka 750ML (Bottled in Nepal)</t>
+          <t>SKYY Vodka 750ML (Bottled in Nepal)</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2568,11 +2568,11 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Stolichnaya Gold 1L</t>
+          <t>Smirnoff Vodka 750ML (Bottled in Nepal)</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>10245</v>
+        <v>2200</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2583,11 +2583,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Stolichnaya Original 1L</t>
+          <t>Stolichnaya Gold 1L</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>8540</v>
+        <v>10245</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2598,11 +2598,11 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Suntory Haku Vodka 700ML</t>
+          <t>Stolichnaya Original 1L</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>8600</v>
+        <v>8540</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2613,11 +2613,11 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Tito's Handmade 1L</t>
+          <t>Suntory Haku Vodka 700ML</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>10865</v>
+        <v>8600</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -2628,11 +2628,11 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Uluvka Vodka 1L</t>
+          <t>Tito's Handmade 1L</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>12485</v>
+        <v>10865</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2643,11 +2643,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Wyborowa Exquisite Vodka 750ML</t>
+          <t>Uluvka Vodka 1L</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>11000</v>
+        <v>12485</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -2658,11 +2658,11 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Yeti Vodka 1L</t>
+          <t>Wyborowa Exquisite Vodka 750ML</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2673,11 +2673,11 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Yeti Vodka 750ML</t>
+          <t>Yeti Vodka 1L</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2260</v>
+        <v>3000</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -2688,26 +2688,26 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Barton London Extra Dry Gin 1L</t>
+          <t>Yeti Vodka 750ML</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>6250</v>
+        <v>2260</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Gin</t>
+          <t>Vodka</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Beefeater London Dry Gin 1L</t>
+          <t>Barton London Extra Dry Gin 1L</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>6735</v>
+        <v>6250</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -2718,11 +2718,11 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Beefeater London Dry Gin 750ML</t>
+          <t>Beefeater London Dry Gin 1L</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>5340</v>
+        <v>6735</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2733,11 +2733,11 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Berries &amp; Blues 750ML</t>
+          <t>Beefeater London Dry Gin 750ML</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1260</v>
+        <v>5340</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -2748,11 +2748,11 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Blue Diamond 750ML</t>
+          <t>Berries &amp; Blues 750ML</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1200</v>
+        <v>1260</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -2763,11 +2763,11 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Blue Riband Gin 750ML</t>
+          <t>Blue Diamond 750ML</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1760</v>
+        <v>1200</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2778,11 +2778,11 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Bombay Bramble Distilled Gin 700ML</t>
+          <t>Blue Riband Gin 750ML</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>11000</v>
+        <v>1760</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -2793,11 +2793,11 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Bombay Sapphire Distilled London Dry Gin 1L</t>
+          <t>Bombay Bramble Distilled Gin 700ML</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>11825</v>
+        <v>11000</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -2808,11 +2808,11 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Bombay Sapphire Distilled London Dry Gin 750ML</t>
+          <t>Bombay Sapphire Distilled London Dry Gin 1L</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>8875</v>
+        <v>11825</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Bottega Bacur Distilled Dry Gin 700ML</t>
+          <t>Bombay Sapphire Distilled London Dry Gin 750ML</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>7650</v>
+        <v>8875</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Bottega Bacur Green Gin The Wild Distilled Dry Gin 700ML</t>
+          <t>Bottega Bacur Distilled Dry Gin 700ML</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2853,11 +2853,11 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Bulldog London Dry Gin 750ML</t>
+          <t>Bottega Bacur Green Gin The Wild Distilled Dry Gin 700ML</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>6420</v>
+        <v>7650</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -2868,11 +2868,11 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Edinburgh Classic London Dry Gin 700ML</t>
+          <t>Bulldog London Dry Gin 750ML</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>7200</v>
+        <v>6420</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -2883,11 +2883,11 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Gilbey's Special Dry Gin 1L</t>
+          <t>Edinburgh Classic London Dry Gin 700ML</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>6550</v>
+        <v>7200</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -2898,11 +2898,11 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Gordon's London Dry Gin 1L</t>
+          <t>Gilbey's Special Dry Gin 1L</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>6750</v>
+        <v>6550</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -2913,11 +2913,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Greater Than London Dry Gin 700ML</t>
+          <t>Gordon's London Dry Gin 1L</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>5485</v>
+        <v>6750</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -2928,11 +2928,11 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Hapusa Himalayan Dry Gin 750ML</t>
+          <t>Greater Than London Dry Gin 700ML</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>7500</v>
+        <v>5485</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -2943,11 +2943,11 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Hendrick's Gin 700ML</t>
+          <t>Hapusa Himalayan Dry Gin 750ML</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>9610</v>
+        <v>7500</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Hendrick's Neptunia Gin 700ML</t>
+          <t>Hendrick's Gin 700ML</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2973,11 +2973,11 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Larios London Dry Gin 700ML</t>
+          <t>Hendrick's Neptunia Gin 700ML</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>5500</v>
+        <v>9610</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -2988,11 +2988,11 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Larios Rose Gin 700ML</t>
+          <t>Larios London Dry Gin 700ML</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3003,11 +3003,11 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>London Hill London Dry Gin 700ML</t>
+          <t>Larios Rose Gin 700ML</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>5200</v>
+        <v>5900</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>London Hill Premium Pink Gin 700ML</t>
+          <t>London Hill London Dry Gin 700ML</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -3033,11 +3033,11 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Monkey 47 Schwarzwald Dry Gin 500ML</t>
+          <t>London Hill Premium Pink Gin 700ML</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>9920</v>
+        <v>5200</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3048,11 +3048,11 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Nordes Atlantic Galician Gin 700ML</t>
+          <t>Monkey 47 Schwarzwald Dry Gin 500ML</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>9500</v>
+        <v>9920</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3063,11 +3063,11 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Samsara Contemporary Indian Coffee &amp; Hazelnut Gin 750ML</t>
+          <t>Nordes Atlantic Galician Gin 700ML</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Samsara Contemporary Indian Grapefruit &amp; Rose Gin 750ML</t>
+          <t>Samsara Contemporary Indian Coffee &amp; Hazelnut Gin 750ML</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Samsara Contemporary Indian Lemon &amp; Elderflower Gin 750ML</t>
+          <t>Samsara Contemporary Indian Grapefruit &amp; Rose Gin 750ML</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Samsara Contemporary Indian Pink Gin 750ML</t>
+          <t>Samsara Contemporary Indian Lemon &amp; Elderflower Gin 750ML</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Samsara Contemporary Indian Regular Gin 750ML</t>
+          <t>Samsara Contemporary Indian Pink Gin 750ML</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -3138,11 +3138,11 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sipsmith London Dry Gin 700ML</t>
+          <t>Samsara Contemporary Indian Regular Gin 750ML</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>8900</v>
+        <v>6500</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3153,11 +3153,11 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sipsmith London Sloe Gin 500ML</t>
+          <t>Sipsmith London Dry Gin 700ML</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>7900</v>
+        <v>8900</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -3168,11 +3168,11 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sipsmith London V.J.O.P. Gin 700ML</t>
+          <t>Sipsmith London Sloe Gin 500ML</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>11500</v>
+        <v>7900</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Snowman Gin 750ML</t>
+          <t>Sipsmith London V.J.O.P. Gin 700ML</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>2400</v>
+        <v>11500</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -3198,11 +3198,11 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Suntory Roku Gin 700ML</t>
+          <t>Snowman Gin 750ML</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>8600</v>
+        <v>2500</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -3213,11 +3213,11 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Tanqueray London Dry Gin 1L</t>
+          <t>Suntory Roku Gin 700ML</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3228,11 +3228,11 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Tanqueray No. TEN Gin 1L</t>
+          <t>Tanqueray London Dry Gin 1L</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>11000</v>
+        <v>8200</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3243,11 +3243,11 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Tenjaku Japanese Craft Gin 700ML</t>
+          <t>Tanqueray No. TEN Gin 1L</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>7190</v>
+        <v>11000</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -3258,11 +3258,11 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>The Botanist Islay Dry Gin 700ML</t>
+          <t>Tenjaku Japanese Craft Gin 700ML</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>9530</v>
+        <v>7190</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -3273,11 +3273,11 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Vogue Gin 750ML</t>
+          <t>The Botanist Islay Dry Gin 700ML</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1200</v>
+        <v>9530</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -3288,26 +3288,26 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>365 Days Rum 750ML</t>
+          <t>Vogue Gin 750ML</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1195</v>
+        <v>1200</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Rum</t>
+          <t>Gin</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Angostura 3yrs Reserva Premium White Rum 700ML</t>
+          <t>365 Days Rum 750ML</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>7700</v>
+        <v>1195</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -3318,11 +3318,11 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Angostura 5yrs Superior Gold Rum 700ML</t>
+          <t>Angostura 3yrs Reserva Premium White Rum 700ML</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>8050</v>
+        <v>7700</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -3333,11 +3333,11 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Bacardi Carta Blanca Superior White 1L</t>
+          <t>Angostura 5yrs Superior Gold Rum 700ML</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>8800</v>
+        <v>8050</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -3348,11 +3348,11 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Bacardi Carta Oro Superior Gold 1L</t>
+          <t>Bacardi Carta Blanca Superior White 1L</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -3363,11 +3363,11 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Barton Gold Rum 1L</t>
+          <t>Bacardi Carta Oro Superior Gold 1L</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>6300</v>
+        <v>9000</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -3378,11 +3378,11 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Camikara 8yrs Cask Aged 700ML</t>
+          <t>Barton Gold Rum 1L</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>5600</v>
+        <v>6300</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -3393,11 +3393,11 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Captain Morgan Black 1L</t>
+          <t>Camikara 8yrs Cask Aged 700ML</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>6800</v>
+        <v>5600</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -3408,11 +3408,11 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Captain Morgan Spiced Gold 1L</t>
+          <t>Captain Morgan Black 1L</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -3423,11 +3423,11 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Diplomatico Mantuano Rum 700ML</t>
+          <t>Captain Morgan Spiced Gold 1L</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>7455</v>
+        <v>6900</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Diplomatico Reserva Exclusiva Rum 700ML</t>
+          <t>Diplomatico Mantuano Rum 700ML</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3453,11 +3453,11 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Grand Master XXX Rum 750ML</t>
+          <t>Diplomatico Reserva Exclusiva Rum 700ML</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1800</v>
+        <v>7455</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -3468,11 +3468,11 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Himalayan Honey Hunter 15yrs Rum 750ML</t>
+          <t>Grand Master XXX Rum 750ML</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>5125</v>
+        <v>1800</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -3483,11 +3483,11 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Himalayan Honey Hunter 4yrs Rum 750ML</t>
+          <t>Himalayan Honey Hunter 15yrs Rum 750ML</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>2345</v>
+        <v>5125</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -3498,11 +3498,11 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Karda XXX Rum 750ML</t>
+          <t>Himalayan Honey Hunter 4yrs Rum 750ML</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1150</v>
+        <v>2345</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -3513,11 +3513,11 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Khukri Coronation Rum 375ML</t>
+          <t>Karda XXX Rum 750ML</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>2700</v>
+        <v>1150</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -3528,11 +3528,11 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Khukri Spiced Rum 750ML</t>
+          <t>Khukri Coronation Rum 375ML</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>2450</v>
+        <v>2700</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Khukri White Rum 750ML</t>
+          <t>Khukri Spiced Rum 750ML</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3558,11 +3558,11 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Khukri XXX Rum 750ML</t>
+          <t>Khukri White Rum 750ML</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2080</v>
+        <v>2450</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -3573,11 +3573,11 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Malibu White Rum with Coconut 1L</t>
+          <t>Khukri XXX Rum 750ML</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>7350</v>
+        <v>2080</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -3588,11 +3588,11 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Mount Gay Eclipse Rum 700ML</t>
+          <t>Malibu White Rum with Coconut 1L</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>7490</v>
+        <v>7350</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -3603,11 +3603,11 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Old Monk The Legend Rum 750ML</t>
+          <t>Mount Gay Eclipse Rum 700ML</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>2500</v>
+        <v>7490</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -3618,11 +3618,11 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Old Monk XXX Rum 750ML</t>
+          <t>Old Monk The Legend Rum 750ML</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -3633,11 +3633,11 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Sailor Jerry Spiced 700ML</t>
+          <t>Old Monk XXX Rum 750ML</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>7675</v>
+        <v>2000</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -3648,22 +3648,22 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2 Share Natural Sweet Red 750ML</t>
+          <t>Sailor Jerry Spiced 700ML</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1500</v>
+        <v>7675</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Rum</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2 Share Natural Sweet White 750ML</t>
+          <t>2 Share Natural Sweet Red 750ML</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3678,11 +3678,11 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>4th Street Sweet Red 750ML</t>
+          <t>2 Share Natural Sweet White 750ML</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>2040</v>
+        <v>1500</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>4th Street Sweet White 750ML</t>
+          <t>4th Street Sweet Red 750ML</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -3708,11 +3708,11 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Akira Sweet Red 4L Box</t>
+          <t>4th Street Sweet White 750ML</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>3850</v>
+        <v>2040</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -3723,11 +3723,11 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Akira Sweet Red 750ML</t>
+          <t>Akira Sweet Red 4L Box</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>835</v>
+        <v>3850</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -3738,11 +3738,11 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Akira Sweet White 4L Box</t>
+          <t>Akira Sweet Red 750ML</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>3850</v>
+        <v>835</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -3753,11 +3753,11 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Akira Sweet White 750ML</t>
+          <t>Akira Sweet White 4L Box</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>835</v>
+        <v>3850</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -3768,11 +3768,11 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Amatia Vino Bianco White 750ML</t>
+          <t>Akira Sweet White 750ML</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1875</v>
+        <v>835</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Amatia Vino Rose 750ML</t>
+          <t>Amatia Vino Bianco White 750ML</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Amatia Vino Rosso Red 750ML</t>
+          <t>Amatia Vino Rose 750ML</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3813,11 +3813,11 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Andre Brut Sparkling 750ML</t>
+          <t>Amatia Vino Rosso Red 750ML</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1950</v>
+        <v>1875</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -3828,11 +3828,11 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Animus Douro Vicente Faria DOC 750ML</t>
+          <t>Andre Brut Sparkling 750ML</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>2350</v>
+        <v>1950</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -3843,11 +3843,11 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Banrock Station Cabernet Merlot 750ML</t>
+          <t>Animus Douro Vicente Faria DOC 750ML</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>2200</v>
+        <v>2350</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Banrock Station Chardonnay 750ML</t>
+          <t>Banrock Station Cabernet Merlot 750ML</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3873,11 +3873,11 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Barefoot Sauvignon Blanc 750ML</t>
+          <t>Banrock Station Chardonnay 750ML</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1745</v>
+        <v>2200</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -3888,11 +3888,11 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Baron d'Archange Red Cuvee Prestige Corbieres 750ML</t>
+          <t>Barefoot Sauvignon Blanc 750ML</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>3400</v>
+        <v>1745</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Baron d'Archange White Cuvee Prestige Corbieres 750ML</t>
+          <t>Baron d'Archange Red Cuvee Prestige Corbieres 750ML</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3918,11 +3918,11 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Baron d'Arignac Brut Sparkling 750ML</t>
+          <t>Baron d'Archange White Cuvee Prestige Corbieres 750ML</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1850</v>
+        <v>3400</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -3933,11 +3933,11 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Baron d'Arignac Dry Red 750ML</t>
+          <t>Baron d'Arignac Brut Sparkling 750ML</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Baron d'Arignac Dry White 750ML</t>
+          <t>Baron d'Arignac Dry Red 750ML</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Baron d'Arignac Sweet Red 750ML</t>
+          <t>Baron d'Arignac Dry White 750ML</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Baron d'Arignac Sweet White 750ML</t>
+          <t>Baron d'Arignac Sweet Red 750ML</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3993,11 +3993,11 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Big Master Apple Sweet White 4L Box</t>
+          <t>Baron d'Arignac Sweet White 750ML</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>3955</v>
+        <v>1550</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -4008,11 +4008,11 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Big Master Apple Sweet White 750ML</t>
+          <t>Big Master Apple Sweet White 4L Box</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>870</v>
+        <v>3955</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -4023,11 +4023,11 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Big Master Sweet Red 4L Box</t>
+          <t>Big Master Apple Sweet White 750ML</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>3955</v>
+        <v>870</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -4038,11 +4038,11 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Big Master Sweet Red 750ML</t>
+          <t>Big Master Sweet Red 4L Box</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>870</v>
+        <v>3955</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -4053,11 +4053,11 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Blason d'Aussieres Corbieres 750ML</t>
+          <t>Big Master Sweet Red 750ML</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>2650</v>
+        <v>870</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -4068,11 +4068,11 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Bordeaux Chateau Vieux Laroque 750ML</t>
+          <t>Blason d'Aussieres Corbieres 750ML</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2100</v>
+        <v>2650</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -4083,11 +4083,11 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Bottega Acino Chianti Classico DOCG 750ML</t>
+          <t>Bordeaux Chateau Vieux Laroque 750ML</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -4098,11 +4098,11 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Bottega Acino Chianti Classico Riserva DOCG 750ML</t>
+          <t>Bottega Acino Chianti Classico DOCG 750ML</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -4113,11 +4113,11 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Bottega Acino Chianti DOCG 750ML</t>
+          <t>Bottega Acino Chianti Classico Riserva DOCG 750ML</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -4128,11 +4128,11 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Bottega Amarone Della Valpolicella DOCG 750ML</t>
+          <t>Bottega Acino Chianti DOCG 750ML</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>8500</v>
+        <v>2500</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -4143,11 +4143,11 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Bottega Bolgheri Rosso DOC 750ML</t>
+          <t>Bottega Amarone Della Valpolicella DOCG 750ML</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -4158,11 +4158,11 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Bottega Brunello di Montalcino DOCG 750ML</t>
+          <t>Bottega Bolgheri Rosso DOC 750ML</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -4173,11 +4173,11 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Bottega Cabernet Sauvignon IGT Trevenezie 750ML</t>
+          <t>Bottega Brunello di Montalcino DOCG 750ML</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>2500</v>
+        <v>9500</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Bottega Chardonnay IGT Trevenezie 750ML</t>
+          <t>Bottega Cabernet Sauvignon IGT Trevenezie 750ML</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -4203,11 +4203,11 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Bottega Diamond Pinot Nero Spumante Brut 750ML</t>
+          <t>Bottega Chardonnay IGT Trevenezie 750ML</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>7200</v>
+        <v>2500</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -4218,11 +4218,11 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Bottega Glamour Birilli Gift Pack 2 x 200ML</t>
+          <t>Bottega Diamond Pinot Nero Spumante Brut 750ML</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>2600</v>
+        <v>7200</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -4233,11 +4233,11 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Bottega Glamour Birilli Gift Pack 4 x 200ML</t>
+          <t>Bottega Glamour Birilli Gift Pack 2 x 200ML</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>5200</v>
+        <v>2600</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -4248,11 +4248,11 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Bottega Gold Prosecco DOC Spumante 200ML</t>
+          <t>Bottega Glamour Birilli Gift Pack 4 x 200ML</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1300</v>
+        <v>5200</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Bottega Gold Prosecco DOC Spumante 750ML</t>
+          <t>Bottega Gold Prosecco DOC Spumante 200ML</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>7200</v>
+        <v>1300</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -4278,11 +4278,11 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Bottega Merlot IGT Trevenezie 750ML</t>
+          <t>Bottega Gold Prosecco DOC Spumante 750ML</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>2500</v>
+        <v>7200</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -4293,11 +4293,11 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Bottega Miabi Pinot Nero Spumante Brut 750ML</t>
+          <t>Bottega Merlot IGT Trevenezie 750ML</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>8800</v>
+        <v>2500</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -4308,11 +4308,11 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Bottega Millesimato Spumante Brut 200ML</t>
+          <t>Bottega Miabi Pinot Nero Spumante Brut 750ML</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1300</v>
+        <v>8800</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -4323,11 +4323,11 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Bottega Millesimato Spumante Brut 750ML</t>
+          <t>Bottega Millesimato Spumante Brut 200ML</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>2990</v>
+        <v>1300</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -4338,11 +4338,11 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Bottega Petalo Amore Manzoni Moscato Rose Dolce 750ML</t>
+          <t>Bottega Millesimato Spumante Brut 750ML</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>7200</v>
+        <v>2990</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -4353,11 +4353,11 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Bottega Petalo Amore Moscato Spumante Dolce 750ML</t>
+          <t>Bottega Petalo Amore Manzoni Moscato Rose Dolce 750ML</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>2990</v>
+        <v>7200</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -4368,11 +4368,11 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Bottega Petalo Moscato Trevenezie 750ML</t>
+          <t>Bottega Petalo Amore Moscato Spumante Dolce 750ML</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>2500</v>
+        <v>2990</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -4383,13 +4383,28 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Bottega Pinot Grigio Rose Delle Venezie DOC 750ML</t>
+          <t>Bottega Petalo Moscato Trevenezie 750ML</t>
         </is>
       </c>
       <c r="B264" t="n">
         <v>2500</v>
       </c>
       <c r="C264" t="inlineStr">
+        <is>
+          <t>Wine</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Bottega Pinot Grigio Rose Delle Venezie DOC 750ML</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C265" t="inlineStr">
         <is>
           <t>Wine</t>
         </is>
